--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H2">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>193.019825534732</v>
+        <v>0.06463825681199999</v>
       </c>
       <c r="R2">
-        <v>1737.178429812588</v>
+        <v>0.581744311308</v>
       </c>
       <c r="S2">
-        <v>0.1087955614616976</v>
+        <v>0.0005816871278908315</v>
       </c>
       <c r="T2">
-        <v>0.1087955614616976</v>
+        <v>0.0005816871278908316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H3">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>1.120034483238222</v>
+        <v>0.3689630680786665</v>
       </c>
       <c r="R3">
-        <v>10.080310349144</v>
+        <v>3.320667612707999</v>
       </c>
       <c r="S3">
-        <v>0.0006313070697415905</v>
+        <v>0.003320341202775518</v>
       </c>
       <c r="T3">
-        <v>0.0006313070697415905</v>
+        <v>0.003320341202775518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H4">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>10.19958074437555</v>
+        <v>6.508753609250666</v>
       </c>
       <c r="R4">
-        <v>91.79622669938</v>
+        <v>58.578782483256</v>
       </c>
       <c r="S4">
-        <v>0.005748990346893585</v>
+        <v>0.05857302439522515</v>
       </c>
       <c r="T4">
-        <v>0.005748990346893584</v>
+        <v>0.05857302439522516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>270.0016365541391</v>
+        <v>0.274474884082</v>
       </c>
       <c r="R5">
-        <v>2430.014728987251</v>
+        <v>2.470273956738</v>
       </c>
       <c r="S5">
-        <v>0.1521863340364435</v>
+        <v>0.00247003113750721</v>
       </c>
       <c r="T5">
-        <v>0.1521863340364435</v>
+        <v>0.00247003113750721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>1.566736176626444</v>
@@ -818,10 +818,10 @@
         <v>14.100625589638</v>
       </c>
       <c r="S6">
-        <v>0.0008830903329552329</v>
+        <v>0.01409923954779839</v>
       </c>
       <c r="T6">
-        <v>0.0008830903329552329</v>
+        <v>0.01409923954779839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>14.26746441987611</v>
+        <v>27.63826687983512</v>
       </c>
       <c r="R7">
-        <v>128.407179778885</v>
+        <v>248.744401918516</v>
       </c>
       <c r="S7">
-        <v>0.008041851648632362</v>
+        <v>0.2487199512197697</v>
       </c>
       <c r="T7">
-        <v>0.008041851648632362</v>
+        <v>0.2487199512197697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H8">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>1212.849049444544</v>
+        <v>0.6955119453080001</v>
       </c>
       <c r="R8">
-        <v>10915.6414450009</v>
+        <v>6.259607507772001</v>
       </c>
       <c r="S8">
-        <v>0.6836219695932835</v>
+        <v>0.006258992210397416</v>
       </c>
       <c r="T8">
-        <v>0.6836219695932835</v>
+        <v>0.006258992210397417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H9">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>7.037788758627554</v>
+        <v>3.970067168930222</v>
       </c>
       <c r="R9">
-        <v>63.34009882764799</v>
+        <v>35.730604520372</v>
       </c>
       <c r="S9">
-        <v>0.003966847329400017</v>
+        <v>0.03572709232777423</v>
       </c>
       <c r="T9">
-        <v>0.003966847329400017</v>
+        <v>0.03572709232777423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H10">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>64.08953990232889</v>
+        <v>70.03462202681158</v>
       </c>
       <c r="R10">
-        <v>576.80585912096</v>
+        <v>630.3115982413041</v>
       </c>
       <c r="S10">
-        <v>0.03612404818095271</v>
+        <v>0.6302496408308617</v>
       </c>
       <c r="T10">
-        <v>0.03612404818095271</v>
+        <v>0.6302496408308617</v>
       </c>
     </row>
   </sheetData>
